--- a/biology/Histoire de la zoologie et de la botanique/Edward_Payson_Van_Duzee/Edward_Payson_Van_Duzee.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Payson_Van_Duzee/Edward_Payson_Van_Duzee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Payson Van Duzee (1861-1940) est un entomologiste américain connu pour son travail sur les hémiptères.
 </t>
@@ -513,25 +525,166 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1889
-Van Duzee E.P., 1889. List of Hemiptera taken in the Adirondack Mountains. The Canadian Entomologist.
-1892
-Van Duzee E.P., 1892. A synoptical arrangement of the genera of the North American Jassidae, with descriptions of some new species. Transactions of the American Entomological Society …
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Van Duzee E.P., 1889. List of Hemiptera taken in the Adirondack Mountains. The Canadian Entomologist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Van Duzee E.P., 1892. A synoptical arrangement of the genera of the North American Jassidae, with descriptions of some new species. Transactions of the American Entomological Society …
 Van Duzee E.P., 1892. New North American Homoptera. No. IV. The Canadian Entomologist.
 Van Duzee E.P., 1892. New North American Homoptera.—No. V. The Canadian Entomologist.
 Van Duzee E.P., 1892. The North American Jassidae allied to Thamnotettix. Psyche: A Journal of Entomology.
-Van Duzee E.P., 1892. A revision of the North American species of Phlepsius. Transactions of the American Entomological Society …
-1894
-Van Duzee E.P., 1894. A catalogue of the described Jassoidea of North America. Transactions of the American Entomological Society …
-1916
-Van Duzee E.P., 1916. Check list of the Hemiptera (excepting the Aphididœ, Aleurodidœ and Coccidœ) of America, north of Mexico. New York Entomological Society.
+Van Duzee E.P., 1892. A revision of the North American species of Phlepsius. Transactions of the American Entomological Society …</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Van Duzee E.P., 1894. A catalogue of the described Jassoidea of North America. Transactions of the American Entomological Society …</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Van Duzee E.P., 1916. Check list of the Hemiptera (excepting the Aphididœ, Aleurodidœ and Coccidœ) of America, north of Mexico. New York Entomological Society.
 Van Duzee E.P., 1916. Synoptical keys to the genera of the North American Miridae. University of California Press.
 Van Duzee E.P., 1916. Notes on some Hemiptera taken near Lake Tahoe, California. University of California Press.
 Van Duzee E.P., 1916. Monograph of the North American species of Orthotylus (Hemiptera). The Academy.
 Van Duzee E.P., 1916. Suborder Homoptera Latr. 1810. Section Auchenorhyncha A. &amp; S. 1843. Check list of Hemiptera (excepting the Aphididae …).
-Van Duzee E.P., 1916. New or little known genera and species of Orthotylini (Hemiptera).
-1917
-Van Duzee E.P., Giffard W.M., 1917. Report Upon a Collection of Hemiptera Made by Walter M. Giffard in 1916 and 1917: Chiefly in California. The Academy.</t>
+Van Duzee E.P., 1916. New or little known genera and species of Orthotylini (Hemiptera).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Payson_Van_Duzee</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Van Duzee E.P., Giffard W.M., 1917. Report Upon a Collection of Hemiptera Made by Walter M. Giffard in 1916 and 1917: Chiefly in California. The Academy.</t>
         </is>
       </c>
     </row>
